--- a/Planung_GanttDiagramm.xlsx
+++ b/Planung_GanttDiagramm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
   <si>
     <t>Nr.</t>
   </si>
@@ -102,12 +102,28 @@
   <si>
     <t xml:space="preserve">   Tätigkeit (Arbeitspaket # 2 Konzeptionierung)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phase
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tätigkeit (Webfrontent)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +182,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +224,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +443,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -499,6 +528,45 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,63 +576,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -925,7 +958,7 @@
   <dimension ref="A1:BF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +1010,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29"/>
@@ -986,88 +1019,88 @@
         <v>9</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="52" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="52" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="52" t="s">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="52" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="52" t="s">
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="52" t="s">
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="54"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="67"/>
       <c r="BF1" s="9"/>
     </row>
     <row r="2" spans="1:58" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
@@ -1235,16 +1268,16 @@
       <c r="BF2" s="3"/>
     </row>
     <row r="3" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="A3" s="72">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1278,16 +1311,16 @@
       <c r="BF3" s="10"/>
     </row>
     <row r="4" spans="1:58" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="15"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -1340,14 +1373,14 @@
       <c r="BF4" s="13"/>
     </row>
     <row r="5" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="34" t="s">
         <v>3</v>
       </c>
@@ -1380,10 +1413,10 @@
       <c r="BF5" s="17"/>
     </row>
     <row r="6" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="35" t="s">
         <v>4</v>
       </c>
@@ -1442,20 +1475,21 @@
       <c r="BF6" s="20"/>
     </row>
     <row r="7" spans="1:58" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="A7" s="72">
         <v>3</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="B7" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="10"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
       <c r="M7" s="12"/>
       <c r="N7" s="10"/>
       <c r="Q7" s="12"/>
@@ -1482,10 +1516,10 @@
       <c r="BF7" s="10"/>
     </row>
     <row r="8" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="33" t="s">
         <v>4</v>
       </c>
@@ -1544,14 +1578,14 @@
       <c r="BF8" s="13"/>
     </row>
     <row r="9" spans="1:58" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="A9" s="72">
         <v>4</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="34" t="s">
         <v>3</v>
       </c>
@@ -1584,10 +1618,10 @@
       <c r="BF9" s="17"/>
     </row>
     <row r="10" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="35" t="s">
         <v>4</v>
       </c>
@@ -1646,14 +1680,14 @@
       <c r="BF10" s="20"/>
     </row>
     <row r="11" spans="1:58" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="72">
         <v>5</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="32" t="s">
         <v>3</v>
       </c>
@@ -1686,10 +1720,10 @@
       <c r="BF11" s="10"/>
     </row>
     <row r="12" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="33" t="s">
         <v>4</v>
       </c>
@@ -1748,12 +1782,12 @@
       <c r="BF12" s="13"/>
     </row>
     <row r="13" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="A13" s="72">
         <v>6</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="34" t="s">
         <v>3</v>
       </c>
@@ -1786,10 +1820,10 @@
       <c r="BF13" s="17"/>
     </row>
     <row r="14" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="35" t="s">
         <v>4</v>
       </c>
@@ -1848,12 +1882,12 @@
       <c r="BF14" s="20"/>
     </row>
     <row r="15" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="72">
         <v>7</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="32" t="s">
         <v>3</v>
       </c>
@@ -1886,10 +1920,10 @@
       <c r="BF15" s="10"/>
     </row>
     <row r="16" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="33" t="s">
         <v>4</v>
       </c>
@@ -1948,12 +1982,12 @@
       <c r="BF16" s="13"/>
     </row>
     <row r="17" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="A17" s="72">
         <v>8</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="34" t="s">
         <v>3</v>
       </c>
@@ -1986,10 +2020,10 @@
       <c r="BF17" s="17"/>
     </row>
     <row r="18" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="35" t="s">
         <v>4</v>
       </c>
@@ -2048,12 +2082,12 @@
       <c r="BF18" s="20"/>
     </row>
     <row r="19" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="72">
         <v>9</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="32" t="s">
         <v>3</v>
       </c>
@@ -2086,10 +2120,10 @@
       <c r="BF19" s="10"/>
     </row>
     <row r="20" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="33" t="s">
         <v>4</v>
       </c>
@@ -2148,14 +2182,14 @@
       <c r="BF20" s="13"/>
     </row>
     <row r="21" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="A21" s="72">
         <v>10</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="34" t="s">
         <v>3</v>
       </c>
@@ -2214,10 +2248,10 @@
       <c r="BF21" s="17"/>
     </row>
     <row r="22" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="35" t="s">
         <v>4</v>
       </c>
@@ -2276,14 +2310,14 @@
       <c r="BF22" s="20"/>
     </row>
     <row r="23" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+      <c r="A23" s="72">
         <v>11</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="43"/>
       <c r="F23" s="44"/>
       <c r="G23" s="45"/>
@@ -2346,10 +2380,10 @@
       <c r="BF23" s="10"/>
     </row>
     <row r="24" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="47"/>
       <c r="F24" s="48"/>
       <c r="G24" s="49"/>
@@ -2406,12 +2440,12 @@
       <c r="BF24" s="13"/>
     </row>
     <row r="25" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
+      <c r="A25" s="72">
         <v>12</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="34"/>
       <c r="F25" s="17"/>
       <c r="I25" s="19"/>
@@ -2442,10 +2476,10 @@
       <c r="BF25" s="17"/>
     </row>
     <row r="26" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="35"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
@@ -2502,12 +2536,12 @@
       <c r="BF26" s="20"/>
     </row>
     <row r="27" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="72">
         <v>13</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="32"/>
       <c r="F27" s="10"/>
       <c r="I27" s="12"/>
@@ -2538,10 +2572,10 @@
       <c r="BF27" s="10"/>
     </row>
     <row r="28" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="33"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
@@ -2598,12 +2632,12 @@
       <c r="BF28" s="13"/>
     </row>
     <row r="29" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="72">
         <v>14</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="34"/>
       <c r="F29" s="17"/>
       <c r="I29" s="19"/>
@@ -2634,10 +2668,10 @@
       <c r="BF29" s="17"/>
     </row>
     <row r="30" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="35"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
@@ -2694,12 +2728,12 @@
       <c r="BF30" s="20"/>
     </row>
     <row r="31" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="72">
         <v>15</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="32"/>
       <c r="F31" s="10"/>
       <c r="I31" s="12"/>
@@ -2730,10 +2764,10 @@
       <c r="BF31" s="10"/>
     </row>
     <row r="32" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="33"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -2790,12 +2824,12 @@
       <c r="BF32" s="13"/>
     </row>
     <row r="33" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55">
+      <c r="A33" s="72">
         <v>16</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="34"/>
       <c r="F33" s="17"/>
       <c r="I33" s="19"/>
@@ -2826,10 +2860,10 @@
       <c r="BF33" s="17"/>
     </row>
     <row r="34" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="35"/>
       <c r="F34" s="20"/>
       <c r="G34" s="21"/>
@@ -2886,12 +2920,12 @@
       <c r="BF34" s="20"/>
     </row>
     <row r="35" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
+      <c r="A35" s="72">
         <v>17</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="32"/>
       <c r="F35" s="10"/>
       <c r="I35" s="12"/>
@@ -2922,10 +2956,10 @@
       <c r="BF35" s="10"/>
     </row>
     <row r="36" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="33"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -2982,12 +3016,12 @@
       <c r="BF36" s="13"/>
     </row>
     <row r="37" spans="1:58" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
+      <c r="A37" s="72">
         <v>18</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="34"/>
       <c r="F37" s="17"/>
       <c r="I37" s="19"/>
@@ -3018,10 +3052,10 @@
       <c r="BF37" s="17"/>
     </row>
     <row r="38" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="35"/>
       <c r="F38" s="20"/>
       <c r="G38" s="21"/>
@@ -3078,12 +3112,12 @@
       <c r="BF38" s="20"/>
     </row>
     <row r="39" spans="1:58" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
+      <c r="A39" s="72">
         <v>19</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="32"/>
       <c r="F39" s="10"/>
       <c r="I39" s="12"/>
@@ -3114,10 +3148,10 @@
       <c r="BF39" s="10"/>
     </row>
     <row r="40" spans="1:58" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="36"/>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
@@ -3180,35 +3214,32 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
@@ -3225,32 +3256,35 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
